--- a/Files/Report.xlsx
+++ b/Files/Report.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Updates" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="23">
   <si>
     <t>Categoría</t>
   </si>
@@ -68,6 +69,21 @@
   </si>
   <si>
     <t>General</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Nuevos</t>
+  </si>
+  <si>
+    <t>Actualizados</t>
+  </si>
+  <si>
+    <t>Visitados</t>
+  </si>
+  <si>
+    <t>Frecuencia</t>
   </si>
 </sst>
 </file>
@@ -465,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3240</v>
+        <v>3286</v>
       </c>
       <c r="C2">
         <v>504</v>
@@ -477,13 +493,13 @@
         <v>68</v>
       </c>
       <c r="F2">
-        <v>557</v>
+        <v>590</v>
       </c>
       <c r="G2">
         <v>181</v>
       </c>
       <c r="H2">
-        <v>1165</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -491,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1350</v>
+        <v>2024</v>
       </c>
       <c r="C3">
         <v>253</v>
@@ -503,13 +519,13 @@
         <v>29</v>
       </c>
       <c r="F3">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="G3">
         <v>191</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>655</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -517,7 +533,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1232</v>
+        <v>2335</v>
       </c>
       <c r="C4">
         <v>181</v>
@@ -529,13 +545,13 @@
         <v>108</v>
       </c>
       <c r="F4">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G4">
         <v>10</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -543,7 +559,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>730</v>
+        <v>1021</v>
       </c>
       <c r="C5">
         <v>111</v>
@@ -555,13 +571,13 @@
         <v>41</v>
       </c>
       <c r="F5">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G5">
         <v>150</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -569,7 +585,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1289</v>
+        <v>1951</v>
       </c>
       <c r="C6">
         <v>300</v>
@@ -581,13 +597,13 @@
         <v>21</v>
       </c>
       <c r="F6">
-        <v>254</v>
+        <v>312</v>
       </c>
       <c r="G6">
         <v>179</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -595,7 +611,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="C7">
         <v>114</v>
@@ -607,13 +623,13 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="G7">
         <v>62</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -621,7 +637,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1020</v>
+        <v>1294</v>
       </c>
       <c r="C8">
         <v>132</v>
@@ -633,13 +649,13 @@
         <v>368</v>
       </c>
       <c r="F8">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -647,25 +663,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>630</v>
+        <v>899</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="D9">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E9">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F9">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G9">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -673,25 +689,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1513</v>
+        <v>1713</v>
       </c>
       <c r="C10">
-        <v>484</v>
+        <v>405</v>
       </c>
       <c r="D10">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="E10">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F10">
-        <v>203</v>
+        <v>305</v>
       </c>
       <c r="G10">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -699,30 +715,2071 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B11">
     <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AI24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:35">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>2</v>
+      </c>
+      <c r="Z3">
+        <v>2</v>
+      </c>
+      <c r="AA3">
+        <v>53</v>
+      </c>
+      <c r="AB3">
+        <v>2</v>
+      </c>
+      <c r="AC3">
+        <v>27.5</v>
+      </c>
+      <c r="AE3">
+        <v>2</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>2</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>1.5</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
+      </c>
+      <c r="Y4">
+        <v>3</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>2</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>3</v>
+      </c>
+      <c r="AF4">
+        <v>5</v>
+      </c>
+      <c r="AG4">
+        <v>59</v>
+      </c>
+      <c r="AH4">
+        <v>2</v>
+      </c>
+      <c r="AI4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>4</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>3</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>4</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>76</v>
+      </c>
+      <c r="AH5">
+        <v>3</v>
+      </c>
+      <c r="AI5">
+        <v>25.66666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>5</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>13</v>
+      </c>
+      <c r="AB6">
+        <v>2</v>
+      </c>
+      <c r="AC6">
+        <v>6.5</v>
+      </c>
+      <c r="AE6">
+        <v>5</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>2</v>
+      </c>
+      <c r="AI6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>6</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>1.5</v>
+      </c>
+      <c r="Y7">
+        <v>6</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>4</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>6</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>77</v>
+      </c>
+      <c r="AH7">
+        <v>4</v>
+      </c>
+      <c r="AI7">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>112</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>28.25</v>
+      </c>
+      <c r="S8">
+        <v>7</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>7</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>13</v>
+      </c>
+      <c r="AB8">
+        <v>4</v>
+      </c>
+      <c r="AC8">
+        <v>3.25</v>
+      </c>
+      <c r="AE8">
+        <v>7</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>59</v>
+      </c>
+      <c r="AH8">
+        <v>4</v>
+      </c>
+      <c r="AI8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>0.5</v>
+      </c>
+      <c r="S9">
+        <v>8</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>8</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>13</v>
+      </c>
+      <c r="AB9">
+        <v>2</v>
+      </c>
+      <c r="AC9">
+        <v>6.5</v>
+      </c>
+      <c r="AE9">
+        <v>8</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>55</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>14</v>
+      </c>
+      <c r="S10">
+        <v>9</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>9</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>4</v>
+      </c>
+      <c r="AC10">
+        <v>0.25</v>
+      </c>
+      <c r="AE10">
+        <v>9</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>10</v>
+      </c>
+      <c r="AH10">
+        <v>4</v>
+      </c>
+      <c r="AI10">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>12</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>10</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>10</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>94</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>48.5</v>
+      </c>
+      <c r="S12">
+        <v>13</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>11</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>5</v>
+      </c>
+      <c r="AB12">
+        <v>4</v>
+      </c>
+      <c r="AC12">
+        <v>1.25</v>
+      </c>
+      <c r="AE12">
+        <v>11</v>
+      </c>
+      <c r="AF12">
+        <v>3</v>
+      </c>
+      <c r="AG12">
+        <v>45</v>
+      </c>
+      <c r="AH12">
+        <v>2</v>
+      </c>
+      <c r="AI12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>14</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>12</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>5</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>12</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>3</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>9</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>2.25</v>
+      </c>
+      <c r="S14">
+        <v>15</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>13</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>4</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>13</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>4</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>14</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>7</v>
+      </c>
+      <c r="S15">
+        <v>16</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>10</v>
+      </c>
+      <c r="V15">
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <v>5</v>
+      </c>
+      <c r="Y15">
+        <v>14</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>2</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>14</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>2</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>17</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>8</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>15</v>
+      </c>
+      <c r="Z16">
+        <v>3</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>4</v>
+      </c>
+      <c r="AC16">
+        <v>0.75</v>
+      </c>
+      <c r="AE16">
+        <v>15</v>
+      </c>
+      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <v>80</v>
+      </c>
+      <c r="AH16">
+        <v>4</v>
+      </c>
+      <c r="AI16">
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>4.5</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>26</v>
+      </c>
+      <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <v>3.714285714285714</v>
+      </c>
+      <c r="S17">
+        <v>18</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>4</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>16</v>
+      </c>
+      <c r="Z17">
+        <v>2</v>
+      </c>
+      <c r="AA17">
+        <v>8</v>
+      </c>
+      <c r="AB17">
+        <v>7</v>
+      </c>
+      <c r="AC17">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="AE17">
+        <v>16</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>7</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>9</v>
+      </c>
+      <c r="J18">
+        <v>13</v>
+      </c>
+      <c r="K18">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="S18">
+        <v>19</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>17</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>21</v>
+      </c>
+      <c r="AB18">
+        <v>13</v>
+      </c>
+      <c r="AC18">
+        <v>1.615384615384615</v>
+      </c>
+      <c r="AE18">
+        <v>17</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>10</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>18</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>7</v>
+      </c>
+      <c r="J19">
+        <v>7</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>20</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>4</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>18</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>30</v>
+      </c>
+      <c r="AB19">
+        <v>7</v>
+      </c>
+      <c r="AC19">
+        <v>4.285714285714286</v>
+      </c>
+      <c r="AE19">
+        <v>18</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>6</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>1.5</v>
+      </c>
+      <c r="G20">
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>14</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>2.8</v>
+      </c>
+      <c r="S20">
+        <v>21</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>19</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>9</v>
+      </c>
+      <c r="AB20">
+        <v>5</v>
+      </c>
+      <c r="AC20">
+        <v>2</v>
+      </c>
+      <c r="AE20">
+        <v>19</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>4</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>0.4</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <v>0.5</v>
+      </c>
+      <c r="Y21">
+        <v>20</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>13</v>
+      </c>
+      <c r="AB21">
+        <v>6</v>
+      </c>
+      <c r="AC21">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="AE21">
+        <v>20</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>5</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>40</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>21</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>74</v>
+      </c>
+      <c r="J22">
+        <v>8</v>
+      </c>
+      <c r="K22">
+        <v>9.625</v>
+      </c>
+      <c r="Y22">
+        <v>21</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>63</v>
+      </c>
+      <c r="AB22">
+        <v>8</v>
+      </c>
+      <c r="AC22">
+        <v>8</v>
+      </c>
+      <c r="AE22">
+        <v>21</v>
+      </c>
+      <c r="AF22">
+        <v>95</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>7</v>
+      </c>
+      <c r="AI22">
+        <v>13.57142857142857</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35">
+      <c r="G23">
+        <v>22</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>22</v>
+      </c>
+      <c r="Z23">
+        <v>36</v>
+      </c>
+      <c r="AA23">
+        <v>93</v>
+      </c>
+      <c r="AB23">
+        <v>3</v>
+      </c>
+      <c r="AC23">
+        <v>43</v>
+      </c>
+      <c r="AE23">
+        <v>22</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>1</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35">
+      <c r="G24">
+        <v>23</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>23</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>2</v>
+      </c>
+      <c r="AC24">
+        <v>0.5</v>
+      </c>
+      <c r="AE24">
+        <v>23</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>1</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="AC3:AC20">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC3:AC22">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC3:AC24">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI3:AI20">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI3:AI22">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI3:AI24">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E20">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E22">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E24">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K20">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K22">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K24">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W3:W20">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W3:W22">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W3:W24">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>

--- a/Files/Report.xlsx
+++ b/Files/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="23">
   <si>
     <t>Categoría</t>
   </si>
@@ -481,25 +481,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3286</v>
+        <v>2600</v>
       </c>
       <c r="C2">
-        <v>504</v>
+        <v>390</v>
       </c>
       <c r="D2">
-        <v>765</v>
+        <v>632</v>
       </c>
       <c r="E2">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>590</v>
+        <v>551</v>
       </c>
       <c r="G2">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="H2">
-        <v>1178</v>
+        <v>772</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -507,25 +507,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2024</v>
+        <v>1850</v>
       </c>
       <c r="C3">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D3">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F3">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G3">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="H3">
-        <v>655</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -533,25 +533,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2335</v>
+        <v>1813</v>
       </c>
       <c r="C4">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="D4">
         <v>608</v>
       </c>
       <c r="E4">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F4">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H4">
-        <v>1103</v>
+        <v>569</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -559,10 +559,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1021</v>
+        <v>888</v>
       </c>
       <c r="C5">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D5">
         <v>206</v>
@@ -571,13 +571,13 @@
         <v>41</v>
       </c>
       <c r="F5">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="G5">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="H5">
-        <v>292</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -585,10 +585,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1951</v>
+        <v>1705</v>
       </c>
       <c r="C6">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="D6">
         <v>535</v>
@@ -597,13 +597,13 @@
         <v>21</v>
       </c>
       <c r="F6">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G6">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="H6">
-        <v>604</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -611,25 +611,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="C7">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="D7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G7">
         <v>62</v>
       </c>
       <c r="H7">
-        <v>67</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -637,25 +637,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1294</v>
+        <v>1198</v>
       </c>
       <c r="C8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E8">
-        <v>368</v>
+        <v>417</v>
       </c>
       <c r="F8">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G8">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="H8">
-        <v>267</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -663,25 +663,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>899</v>
+        <v>855</v>
       </c>
       <c r="C9">
+        <v>89</v>
+      </c>
+      <c r="D9">
+        <v>244</v>
+      </c>
+      <c r="E9">
+        <v>139</v>
+      </c>
+      <c r="F9">
+        <v>148</v>
+      </c>
+      <c r="G9">
+        <v>148</v>
+      </c>
+      <c r="H9">
         <v>87</v>
-      </c>
-      <c r="D9">
-        <v>238</v>
-      </c>
-      <c r="E9">
-        <v>129</v>
-      </c>
-      <c r="F9">
-        <v>150</v>
-      </c>
-      <c r="G9">
-        <v>127</v>
-      </c>
-      <c r="H9">
-        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -689,10 +689,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1713</v>
+        <v>1755</v>
       </c>
       <c r="C10">
-        <v>405</v>
+        <v>434</v>
       </c>
       <c r="D10">
         <v>499</v>
@@ -704,10 +704,10 @@
         <v>305</v>
       </c>
       <c r="G10">
-        <v>318</v>
+        <v>374</v>
       </c>
       <c r="H10">
-        <v>175</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -715,25 +715,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>92</v>
+        <v>448</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>55</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K10">
-        <v>14</v>
+        <v>5.6</v>
       </c>
       <c r="S10">
         <v>9</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -1450,10 +1450,10 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AC10">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AE10">
         <v>9</v>
@@ -1465,10 +1465,10 @@
         <v>10</v>
       </c>
       <c r="AH10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AI10">
-        <v>2.75</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1713,10 +1713,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
         <v>13</v>
@@ -1728,10 +1728,10 @@
         <v>9</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K14">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="S14">
         <v>15</v>
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI14">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="V16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -2021,10 +2021,10 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="G18">
         <v>17</v>
@@ -2036,10 +2036,10 @@
         <v>9</v>
       </c>
       <c r="J18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K18">
-        <v>0.8461538461538461</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="S18">
         <v>19</v>
@@ -2066,10 +2066,10 @@
         <v>21</v>
       </c>
       <c r="AB18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC18">
-        <v>1.615384615384615</v>
+        <v>1.5</v>
       </c>
       <c r="AE18">
         <v>17</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="AH18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI18">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -2272,6 +2272,21 @@
       <c r="K21">
         <v>0.5</v>
       </c>
+      <c r="S21">
+        <v>23</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
       <c r="Y21">
         <v>20</v>
       </c>
@@ -2314,10 +2329,10 @@
         <v>40</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E22">
-        <v>20</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="G22">
         <v>21</v>
@@ -2329,10 +2344,10 @@
         <v>74</v>
       </c>
       <c r="J22">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K22">
-        <v>9.625</v>
+        <v>5.923076923076923</v>
       </c>
       <c r="Y22">
         <v>21</v>
@@ -2344,10 +2359,10 @@
         <v>63</v>
       </c>
       <c r="AB22">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AC22">
-        <v>8</v>
+        <v>4.923076923076923</v>
       </c>
       <c r="AE22">
         <v>21</v>
@@ -2359,13 +2374,28 @@
         <v>0</v>
       </c>
       <c r="AH22">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AI22">
-        <v>13.57142857142857</v>
+        <v>7.916666666666667</v>
       </c>
     </row>
     <row r="23" spans="1:35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
       <c r="G23">
         <v>22</v>
       </c>
@@ -2376,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2391,10 +2421,10 @@
         <v>93</v>
       </c>
       <c r="AB23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC23">
-        <v>43</v>
+        <v>32.25</v>
       </c>
       <c r="AE23">
         <v>22</v>
@@ -2406,13 +2436,28 @@
         <v>0</v>
       </c>
       <c r="AH23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
       <c r="G24">
         <v>23</v>
       </c>
@@ -2423,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2438,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="AB24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC24">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AE24">
         <v>23</v>
@@ -2453,27 +2498,15 @@
         <v>0</v>
       </c>
       <c r="AH24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI24">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AC3:AC20">
+  <conditionalFormatting sqref="AC3:AC21">
     <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC3:AC22">
-    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -2485,6 +2518,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3:AC24">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2526,20 +2569,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI3:AI20">
+  <conditionalFormatting sqref="AI3:AI21">
     <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI3:AI22">
-    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -2551,6 +2582,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI3:AI24">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2592,20 +2633,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E20">
+  <conditionalFormatting sqref="E3:E21">
     <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E22">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -2617,6 +2646,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E24">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2658,20 +2697,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K20">
+  <conditionalFormatting sqref="K3:K21">
     <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K22">
-    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -2683,6 +2710,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K24">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2724,20 +2761,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W3:W20">
+  <conditionalFormatting sqref="W3:W21">
     <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W3:W22">
-    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -2749,6 +2774,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W24">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min" val="0"/>
